--- a/OutilImportation/OutilImportation/Data/veggies_3.xlsx
+++ b/OutilImportation/OutilImportation/Data/veggies_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franc\source\repos\Projet\greenhouse-tech\OutilImportation\OutilImportation\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franc\Documents\Cegep\Projet\test\greenhouse-tech\OutilImportation\OutilImportation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92196512-C089-4A53-88AF-1F9204E52E03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DD1B8D-E1C3-40B7-9169-4E72B7798FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="141">
   <si>
     <t>Image Plant</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Légume</t>
   </si>
   <si>
-    <t>Cucurbitacée</t>
-  </si>
-  <si>
     <t>Printemps, Été, Automne</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>Fruit</t>
   </si>
   <si>
-    <t>Rosacée</t>
-  </si>
-  <si>
     <t>Printemps, Été</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>Tomate</t>
   </si>
   <si>
-    <t>Solonacée</t>
-  </si>
-  <si>
     <t>Riche en humus, léger et bien drainé</t>
   </si>
   <si>
@@ -189,9 +180,6 @@
     <t>Carotte</t>
   </si>
   <si>
-    <t>Ombellifère</t>
-  </si>
-  <si>
     <t>Meuble, riche, dépourvu de cailloux</t>
   </si>
   <si>
@@ -213,9 +201,6 @@
     <t>Maïs</t>
   </si>
   <si>
-    <t>Poacée</t>
-  </si>
-  <si>
     <t>Profond, léger, frais et riche en humus,</t>
   </si>
   <si>
@@ -228,9 +213,6 @@
     <t>Épinard</t>
   </si>
   <si>
-    <t>Chénopodiacée</t>
-  </si>
-  <si>
     <t>Printemps, Été, Automne, Hiver</t>
   </si>
   <si>
@@ -273,9 +255,6 @@
     <t>Aubergine</t>
   </si>
   <si>
-    <t>Solanaceae</t>
-  </si>
-  <si>
     <t>Profond, riche en humus, souple et bien drainé</t>
   </si>
   <si>
@@ -288,9 +267,6 @@
     <t>Brocoli</t>
   </si>
   <si>
-    <t>Brassicaceae</t>
-  </si>
-  <si>
     <t>Frais, profond, humide et riche</t>
   </si>
   <si>
@@ -315,9 +291,6 @@
     <t>Haricot</t>
   </si>
   <si>
-    <t>Fabaceae</t>
-  </si>
-  <si>
     <t>Riche, bien ameublie et fraîche</t>
   </si>
   <si>
@@ -354,9 +327,6 @@
     <t>Oignon</t>
   </si>
   <si>
-    <t>Liliaceae</t>
-  </si>
-  <si>
     <t>Meuble, léger et bien drainé</t>
   </si>
   <si>
@@ -369,9 +339,6 @@
     <t>Laitue</t>
   </si>
   <si>
-    <t>Asteraceae</t>
-  </si>
-  <si>
     <t> Frais et humifère</t>
   </si>
   <si>
@@ -460,6 +427,36 @@
   </si>
   <si>
     <t>https://wiki.pcst.xyz/images/radish.webp</t>
+  </si>
+  <si>
+    <t>Cucurbitacées</t>
+  </si>
+  <si>
+    <t>Rosacées</t>
+  </si>
+  <si>
+    <t>Solonacées</t>
+  </si>
+  <si>
+    <t>Ombellifères</t>
+  </si>
+  <si>
+    <t>Poacées</t>
+  </si>
+  <si>
+    <t>Chénopodiacées</t>
+  </si>
+  <si>
+    <t>Brassicacées</t>
+  </si>
+  <si>
+    <t>Fabacées</t>
+  </si>
+  <si>
+    <t>Liliacées</t>
+  </si>
+  <si>
+    <t>Asteracées</t>
   </si>
 </sst>
 </file>
@@ -573,7 +570,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -605,11 +602,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -889,30 +889,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="39.5703125" customWidth="1"/>
-    <col min="10" max="10" width="34.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" customWidth="1"/>
+    <col min="8" max="8" width="39.5546875" customWidth="1"/>
+    <col min="10" max="10" width="34.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" customWidth="1"/>
+    <col min="16" max="16" width="8.109375" customWidth="1"/>
     <col min="18" max="18" width="8" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" customWidth="1"/>
+    <col min="20" max="20" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -983,9 +983,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>23</v>
@@ -993,26 +993,26 @@
       <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G2" s="3">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" s="1">
         <v>20</v>
@@ -1027,7 +1027,7 @@
         <v>70</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P2" s="1">
         <v>120</v>
@@ -1054,36 +1054,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
+      <c r="D3" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="G3" s="3">
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3" s="1">
         <v>25</v>
@@ -1098,7 +1098,7 @@
         <v>80</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P3" s="1">
         <v>80</v>
@@ -1125,36 +1125,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="G4" s="3">
         <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K4" s="1">
         <v>18</v>
@@ -1169,7 +1169,7 @@
         <v>80</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P4" s="1">
         <v>40</v>
@@ -1196,36 +1196,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K5" s="1">
         <v>18</v>
@@ -1240,7 +1240,7 @@
         <v>75</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P5" s="1">
         <v>45</v>
@@ -1267,36 +1267,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>51</v>
+      <c r="D6" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G6" s="1">
         <v>90</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K6" s="1">
         <v>8</v>
@@ -1311,7 +1311,7 @@
         <v>75</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P6" s="1">
         <v>5</v>
@@ -1338,36 +1338,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1">
         <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I7" s="1">
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K7" s="1">
         <v>12</v>
@@ -1382,7 +1382,7 @@
         <v>90</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P7" s="1">
         <v>150</v>
@@ -1409,36 +1409,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>59</v>
+      <c r="D8" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G8" s="1">
         <v>90</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K8" s="1">
         <v>25</v>
@@ -1453,7 +1453,7 @@
         <v>80</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P8" s="1">
         <v>25</v>
@@ -1480,36 +1480,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>64</v>
+      <c r="D9" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1">
         <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K9" s="1">
         <v>7</v>
@@ -1524,7 +1524,7 @@
         <v>80</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P9" s="1">
         <v>10</v>
@@ -1551,36 +1551,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G10" s="1">
         <v>180</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K10" s="1">
         <v>21</v>
@@ -1595,7 +1595,7 @@
         <v>70</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P10" s="1">
         <v>200</v>
@@ -1622,36 +1622,36 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K11" s="1">
         <v>20</v>
@@ -1666,7 +1666,7 @@
         <v>80</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P11" s="1">
         <v>45</v>
@@ -1693,36 +1693,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>79</v>
+        <v>36</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I12" s="1">
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K12" s="1">
         <v>15</v>
@@ -1737,7 +1737,7 @@
         <v>65</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P12" s="1">
         <v>40</v>
@@ -1764,36 +1764,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>84</v>
+      <c r="D13" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G13" s="1">
         <v>7</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I13" s="1">
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K13" s="1">
         <v>15</v>
@@ -1808,7 +1808,7 @@
         <v>75</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P13" s="1">
         <v>45</v>
@@ -1835,36 +1835,36 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>84</v>
+      <c r="D14" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G14" s="1">
         <v>7</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K14" s="1">
         <v>10</v>
@@ -1879,7 +1879,7 @@
         <v>75</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P14" s="1">
         <v>45</v>
@@ -1906,36 +1906,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G15" s="1">
         <v>4</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="I15" s="1">
         <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="K15" s="1">
         <v>15</v>
@@ -1950,7 +1950,7 @@
         <v>70</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P15" s="1">
         <v>50</v>
@@ -1977,36 +1977,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>36</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G16" s="1">
         <v>7</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="K16" s="1">
         <v>13</v>
@@ -2021,7 +2021,7 @@
         <v>85</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P16" s="1">
         <v>40</v>
@@ -2048,36 +2048,36 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>84</v>
+      <c r="D17" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G17" s="1">
         <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K17" s="1">
         <v>15</v>
@@ -2092,7 +2092,7 @@
         <v>80</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P17" s="1">
         <v>1</v>
@@ -2119,36 +2119,36 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>106</v>
+      <c r="D18" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G18" s="1">
         <v>300</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="K18" s="1">
         <v>13</v>
@@ -2163,7 +2163,7 @@
         <v>75</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P18" s="1">
         <v>15</v>
@@ -2190,36 +2190,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>111</v>
+      <c r="D19" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G19" s="1">
         <v>5</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="K19" s="1">
         <v>5</v>
@@ -2234,7 +2234,7 @@
         <v>85</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P19" s="1">
         <v>25</v>
@@ -2261,36 +2261,36 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>84</v>
+      <c r="D20" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G20" s="1">
         <v>14</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K20" s="1">
         <v>12</v>
@@ -2305,7 +2305,7 @@
         <v>90</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P20" s="1">
         <v>40</v>
@@ -2332,36 +2332,36 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>84</v>
+      <c r="D21" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G21" s="1">
         <v>21</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="K21" s="1">
         <v>10</v>
@@ -2376,7 +2376,7 @@
         <v>70</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P21" s="1">
         <v>5</v>
@@ -2403,55 +2403,55 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J39" s="8"/>
     </row>
   </sheetData>
@@ -2483,12 +2483,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2497,7 +2491,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F8E4E3B306EF3243B17A3CCFA9E9441A" ma:contentTypeVersion="10" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3d37da18a06d251cb9b2da482469452c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7a2aa5ce-9268-4b11-b8eb-4b0ce9691849" xmlns:ns3="705fa277-30ce-4e89-832c-36cb769920f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4566bf6c31235920f0645399a925373" ns2:_="" ns3:_="">
     <xsd:import namespace="7a2aa5ce-9268-4b11-b8eb-4b0ce9691849"/>
@@ -2700,16 +2694,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7773FF7-EB08-4EB2-9378-951F09C9DF5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA50B522-BAD3-40BB-B88D-266886F9B99C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2717,7 +2708,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B636462-8A7E-4C78-880D-A6D60A7783F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2734,4 +2725,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7773FF7-EB08-4EB2-9378-951F09C9DF5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>